--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607117</v>
+        <v>2958248.24860712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177623</v>
+        <v>3940022.790763513</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177623</v>
+        <v>3940022.790763513</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.63502058</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +718,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U2" t="n">
         <v>648.751427201877</v>
@@ -727,7 +727,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W2" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X2" t="n">
         <v>592.2818334606677</v>
@@ -755,10 +755,10 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C5" t="n">
         <v>449.4745782429939</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V8" t="n">
         <v>629.8510241668239</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>408.192915058951</v>
       </c>
       <c r="T9" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U9" t="n">
         <v>400.0036144771679</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1435,7 +1435,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W11" t="n">
         <v>638.3734759809475</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2095,7 +2095,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E20" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
         <v>404.8896287080119</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,25 +2481,25 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554617</v>
+        <v>481.9993129553962</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428811</v>
+        <v>449.4745782428157</v>
       </c>
       <c r="D29" t="n">
-        <v>410.339155739737</v>
+        <v>410.3391557396715</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067559</v>
+        <v>404.3632896066904</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287078991</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054527326</v>
+        <v>397.8840054526671</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129624</v>
+        <v>347.8590406128969</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767776373</v>
       </c>
       <c r="T29" t="n">
-        <v>559.5765741203563</v>
+        <v>560.9649184118027</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017643</v>
+        <v>648.7514272016988</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241667111</v>
+        <v>629.8510241666456</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759808348</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605549</v>
+        <v>592.2818334604895</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826936</v>
+        <v>511.3174326826281</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822411289</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151017276</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3097,7 +3097,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W32" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
         <v>592.2818334606677</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F35" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G35" t="n">
         <v>397.8840054528454</v>
@@ -3325,7 +3325,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
         <v>648.751427201877</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3523,10 +3523,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
         <v>322.5970075731406</v>
@@ -3638,7 +3638,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
-        <v>392.6911708778912</v>
+        <v>391.1574709203184</v>
       </c>
       <c r="U42" t="n">
         <v>400.0036144771679</v>
@@ -3997,10 +3997,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4336,25 +4336,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M2" t="n">
-        <v>3240.782198133642</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N2" t="n">
-        <v>3805.825262006314</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O2" t="n">
-        <v>4776.556370989979</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4366,13 +4366,13 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
         <v>4181.776441881509</v>
@@ -4403,7 +4403,7 @@
         <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G3" t="n">
         <v>555.8565327448407</v>
@@ -4494,13 +4494,13 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
         <v>457.4949902104934</v>
@@ -4573,19 +4573,19 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1841.010275303557</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L5" t="n">
-        <v>2758.60299862014</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M5" t="n">
-        <v>3240.782198133642</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N5" t="n">
-        <v>3805.825262006314</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O5" t="n">
         <v>4776.556370989979</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,34 +4707,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
         <v>457.4949902104935</v>
@@ -4773,10 +4773,10 @@
         <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>179.2040849421416</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4813,19 +4813,19 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L8" t="n">
-        <v>2758.60299862014</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M8" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
         <v>6474.295852434775</v>
@@ -4843,13 +4843,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
         <v>3583.51196363841</v>
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4919,22 +4919,22 @@
         <v>5157.673230555786</v>
       </c>
       <c r="T9" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U9" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V9" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4944,16 +4944,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="F10" t="n">
         <v>290.6133856211738</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.96</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="T10" t="n">
-        <v>140.96</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="U10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="V10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>166.2524130292384</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5044,28 +5044,28 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M11" t="n">
-        <v>3240.782198133642</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N11" t="n">
-        <v>3805.825262006314</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O11" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5083,16 +5083,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5287,13 +5287,13 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L14" t="n">
-        <v>2758.60299862014</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M14" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N14" t="n">
         <v>4728.273641396618</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5487,7 +5487,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,52 +5521,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L17" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176565</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049237</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989981</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5758,52 +5758,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1841.010275303557</v>
+        <v>1901.586501346479</v>
       </c>
       <c r="L20" t="n">
-        <v>2758.60299862014</v>
+        <v>2819.179224663062</v>
       </c>
       <c r="M20" t="n">
-        <v>3240.782198133642</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N20" t="n">
-        <v>3805.825262006314</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O20" t="n">
-        <v>4715.980144947059</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P20" t="n">
-        <v>6413.719626391855</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159623</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100367</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6229,31 +6229,31 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.010275303557</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L26" t="n">
-        <v>2758.60299862014</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M26" t="n">
-        <v>3240.782198133642</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159621</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6429,13 +6429,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="29">
@@ -6445,49 +6445,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.16171551815</v>
+        <v>2580.161715517933</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.14699002029</v>
+        <v>2126.146990020139</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994323586</v>
+        <v>1711.662994323501</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044035</v>
+        <v>1303.215227044016</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041067628</v>
+        <v>894.2358041066304</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682959217</v>
+        <v>492.3327682958555</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1841.010275303557</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L29" t="n">
-        <v>2758.60299862014</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M29" t="n">
-        <v>3240.782198133642</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N29" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O29" t="n">
-        <v>4715.980144947059</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236997</v>
@@ -6496,25 +6496,25 @@
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993153902</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.115762435343</v>
+        <v>6118.115762434909</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290514369</v>
+        <v>5462.811290514001</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134790418</v>
+        <v>4826.598134790116</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441880484</v>
+        <v>4181.776441880068</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637499</v>
+        <v>3583.511963637149</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402455</v>
+        <v>3067.029708402171</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150333</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213302</v>
+        <v>1250.415257213255</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374652</v>
+        <v>2197.27078437467</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117623</v>
+        <v>3071.633876117529</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215868</v>
+        <v>4014.060204215663</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182606</v>
+        <v>4993.313206182402</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369094</v>
+        <v>5699.926775368889</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250385</v>
+        <v>5925.707874250069</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306373262</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6706,25 +6706,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M32" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O32" t="n">
-        <v>4715.980144947059</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P32" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6733,16 +6733,16 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
         <v>4181.776441881509</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H34" t="n">
         <v>239.3480243885944</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
         <v>894.2358041069906</v>
@@ -6943,16 +6943,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M35" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N35" t="n">
         <v>4728.273641396618</v>
@@ -6973,22 +6973,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,52 +7180,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M38" t="n">
-        <v>3240.782198133642</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396619</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7235,16 +7235,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
         <v>881.7120959500332</v>
@@ -7286,25 +7286,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7377,13 +7377,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7414,55 +7414,55 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M41" t="n">
-        <v>3864.448844008177</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N41" t="n">
-        <v>4429.491907880849</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O41" t="n">
-        <v>5755.312162100365</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7520,10 +7520,10 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
         <v>4762.564674070616</v>
@@ -7645,7 +7645,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7660,7 +7660,7 @@
         <v>2550.716641651425</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M44" t="n">
         <v>4163.230577523946</v>
@@ -7709,25 +7709,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
         <v>140.96</v>
@@ -7760,25 +7760,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7818,46 +7818,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.18810711406115</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>29.34358558166832</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8221,10 +8221,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>61.18810711406115</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>870.5779326741233</v>
@@ -8461,22 +8461,22 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>214.890922265086</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>61.18810711406115</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,13 +8710,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>61.18810711406115</v>
+        <v>105.6954007733557</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8935,16 +8935,16 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>214.890922265086</v>
       </c>
       <c r="N14" t="n">
-        <v>931.766039788185</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
-        <v>61.18810711406286</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>491.49284370022</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>61.18810711406093</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9643,10 +9643,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,16 +9655,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1049.830320356877</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>147.4078661503585</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>176.4768357656695</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>392.2657817102986</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,16 +10129,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>721.5474740429295</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>315.9139665186106</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>315.9139665186106</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10591,19 +10591,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>645.1956588512425</v>
       </c>
       <c r="N35" t="n">
-        <v>931.766039788185</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>931.7660397881868</v>
+        <v>29.34358558166855</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11062,34 +11062,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>137.5399223057484</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>419.864011392699</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>214.890922265086</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23727,7 +23727,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24226,10 +24226,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C25" t="n">
         <v>272.7252466480447</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344290838972</v>
       </c>
       <c r="T29" t="n">
-        <v>1.388344291511885</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699956910709</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957223405</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25411,10 +25411,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25885,10 +25885,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26058,7 +26058,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>17.45782105274509</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
@@ -26085,7 +26085,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636737</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971103</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877991</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066946</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769176</v>
+        <v>7353889.199056747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.220046548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341242</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531925</v>
+        <v>11978865.28301614</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722613</v>
+        <v>13135109.30400594</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913301</v>
+        <v>14291353.32499575</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103992</v>
+        <v>15447597.34598557</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294683</v>
+        <v>16603841.36697539</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485374</v>
+        <v>17760085.38796521</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>913048.3542411311</v>
       </c>
       <c r="C2" t="n">
+        <v>913048.3542411317</v>
+      </c>
+      <c r="D2" t="n">
         <v>913048.3542411315</v>
       </c>
-      <c r="D2" t="n">
-        <v>913048.3542411318</v>
-      </c>
       <c r="E2" t="n">
-        <v>817831.1367976691</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="F2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="G2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="G2" t="n">
-        <v>817831.1367976691</v>
       </c>
       <c r="H2" t="n">
         <v>817831.136797669</v>
       </c>
       <c r="I2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="J2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="K2" t="n">
+        <v>817831.1367978031</v>
+      </c>
+      <c r="L2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="N2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817831.1367976688</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976689</v>
-      </c>
-      <c r="J2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="K2" t="n">
-        <v>817831.1367977739</v>
-      </c>
-      <c r="L2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="N2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="O2" t="n">
-        <v>817831.1367976685</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26429,28 +26429,28 @@
         <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722105</v>
+        <v>88471.49209722102</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="H4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>13783.46259850301</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="J4" t="n">
-        <v>13783.46259850301</v>
-      </c>
       <c r="K4" t="n">
-        <v>13783.46259858333</v>
+        <v>13783.4625986054</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850301</v>
@@ -26530,46 +26530,46 @@
         <v>-1393333.449580504</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739775</v>
+        <v>651667.5014739777</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439107</v>
+        <v>651969.8621439105</v>
       </c>
       <c r="E6" t="n">
-        <v>665068.2741991661</v>
+        <v>665068.2741991656</v>
       </c>
       <c r="F6" t="n">
+        <v>665068.2741991659</v>
+      </c>
+      <c r="G6" t="n">
         <v>665068.2741991658</v>
-      </c>
-      <c r="G6" t="n">
-        <v>665068.2741991661</v>
       </c>
       <c r="H6" t="n">
         <v>665068.274199166</v>
       </c>
       <c r="I6" t="n">
+        <v>665068.2741991656</v>
+      </c>
+      <c r="J6" t="n">
+        <v>44844.27419916564</v>
+      </c>
+      <c r="K6" t="n">
+        <v>665068.2741991978</v>
+      </c>
+      <c r="L6" t="n">
+        <v>665068.2741991656</v>
+      </c>
+      <c r="M6" t="n">
+        <v>665068.2741991656</v>
+      </c>
+      <c r="N6" t="n">
+        <v>665068.2741991656</v>
+      </c>
+      <c r="O6" t="n">
+        <v>665068.2741991658</v>
+      </c>
+      <c r="P6" t="n">
         <v>665068.2741991659</v>
-      </c>
-      <c r="J6" t="n">
-        <v>44844.27419916575</v>
-      </c>
-      <c r="K6" t="n">
-        <v>665068.2741991905</v>
-      </c>
-      <c r="L6" t="n">
-        <v>665068.2741991659</v>
-      </c>
-      <c r="M6" t="n">
-        <v>665068.2741991658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>665068.2741991659</v>
-      </c>
-      <c r="O6" t="n">
-        <v>665068.2741991655</v>
-      </c>
-      <c r="P6" t="n">
-        <v>665068.2741991655</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27562,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27699,7 +27699,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27745,7 +27745,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -27969,10 +27969,10 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X7" t="n">
-        <v>286.0740342605536</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y7" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="8">
@@ -28039,7 +28039,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F10" t="n">
-        <v>274.3828559677419</v>
+        <v>400</v>
       </c>
       <c r="G10" t="n">
         <v>242.4092826775956</v>
@@ -28191,13 +28191,13 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>316.45975839138</v>
+        <v>342.0076503401057</v>
       </c>
       <c r="T10" t="n">
         <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
-        <v>301.9797223374088</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V10" t="n">
         <v>199.1703102162162</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,19 +29744,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -29765,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.127773430198432e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34828,10 +34828,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
         <v>926.861336683417</v>
@@ -34843,13 +34843,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>980.5364737208731</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>873.6540180032985</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35065,13 +35065,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,7 +35080,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>980.5364737208731</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
         <v>1714.888365095753</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35265,10 +35265,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.63038883044606</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -35305,22 +35305,22 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>701.9406187433716</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>980.5364737208731</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
@@ -35448,7 +35448,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>125.6171440322581</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -35487,13 +35487,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.54789194872562</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -35536,13 +35536,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L11" t="n">
         <v>926.861336683417</v>
@@ -35554,13 +35554,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>980.5364737208731</v>
+        <v>1025.043767380168</v>
       </c>
       <c r="P11" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35779,16 +35779,16 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>701.9406187433716</v>
       </c>
       <c r="N14" t="n">
-        <v>1502.516609356541</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
@@ -36013,16 +36013,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
-        <v>548.2378035923485</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36250,13 +36250,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132381</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36271,7 +36271,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>522.6229655001433</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36487,10 +36487,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36499,16 +36499,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1620.580889925233</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>991.7182985719886</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36721,13 +36721,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1139.38006814246</v>
       </c>
       <c r="L26" t="n">
         <v>926.861336683417</v>
@@ -36736,7 +36736,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1620.580889925231</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36745,10 +36745,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,13 +36958,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
         <v>926.861336683417</v>
@@ -36973,16 +36973,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1292.298043611285</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1160.224398940241</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37040,19 +37040,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717508</v>
+        <v>422.1086156716381</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012815</v>
+        <v>698.553260301347</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054037</v>
+        <v>956.4197244054692</v>
       </c>
       <c r="M30" t="n">
-        <v>883.195042164617</v>
+        <v>883.1950421645042</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859578242</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
         <v>989.1444464310483</v>
@@ -37061,7 +37061,7 @@
         <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417087</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,10 +37216,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1160.224398940241</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37435,19 +37435,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1132.245355329528</v>
       </c>
       <c r="N35" t="n">
-        <v>1502.516609356541</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37672,10 +37672,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
         <v>926.861336683417</v>
@@ -37684,7 +37684,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1502.516609356543</v>
+        <v>600.0941551500242</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,7 +37693,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37906,34 +37906,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>884.6542087379091</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1339.212377999511</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38152,10 +38152,10 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>701.9406187433716</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
